--- a/3702076037/2014/LUONG 14.xlsx
+++ b/3702076037/2014/LUONG 14.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Desktop\KDP---KNA\3702076037\2014\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" tabRatio="896" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" tabRatio="896"/>
   </bookViews>
   <sheets>
     <sheet name="THL" sheetId="1" r:id="rId1"/>
@@ -446,7 +451,7 @@
     <definedName name="wrn.chi._.tiÆt." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Chi tiÆt"}</definedName>
     <definedName name="wrn.chi._.tiÆt." hidden="1">{#N/A,#N/A,FALSE,"Chi tiÆt"}</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -965,7 +970,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="81">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
@@ -3394,6 +3399,57 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3427,56 +3483,26 @@
     <xf numFmtId="43" fontId="19" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3499,9 +3525,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3511,25 +3534,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4428,6 +4433,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4475,7 +4483,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4508,9 +4516,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4543,6 +4568,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4724,10 +4766,10 @@
   </sheetPr>
   <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E19" sqref="E19"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6511,35 +6553,6 @@
   </protectedRanges>
   <autoFilter ref="A10:Z13"/>
   <mergeCells count="45">
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="N97:N98"/>
-    <mergeCell ref="N99:N100"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="N103:N104"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="N73:N74"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="N83:N84"/>
-    <mergeCell ref="N85:N86"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="N91:N92"/>
-    <mergeCell ref="N69:N70"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="N67:N68"/>
     <mergeCell ref="N45:N46"/>
     <mergeCell ref="A5:X5"/>
     <mergeCell ref="A6:X6"/>
@@ -6556,6 +6569,35 @@
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="A16:C18"/>
     <mergeCell ref="N43:N44"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="N91:N92"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="N97:N98"/>
+    <mergeCell ref="N99:N100"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="N103:N104"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.24" right="0.2" top="0.21" bottom="0.2" header="0.22" footer="0.2"/>
@@ -6644,15 +6686,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -6802,19 +6844,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -6941,30 +6983,30 @@
         <f t="shared" si="0"/>
         <v>41790</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -7011,11 +7053,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Năm</v>
@@ -7149,13 +7191,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -7436,17 +7478,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -7538,29 +7580,29 @@
       <c r="AJ9" s="87">
         <v>8</v>
       </c>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f>SUM(AK9:AM10)</f>
         <v>27</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -7608,10 +7650,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -7646,15 +7688,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -7754,17 +7796,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>1</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Nguyễn Thị Thanh Thúy</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -7856,29 +7898,29 @@
       <c r="AJ12" s="87">
         <v>8</v>
       </c>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f>SUM(AK12:AM13)</f>
         <v>27</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="79"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -7926,10 +7968,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -7964,15 +8006,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="79"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -8020,18 +8062,18 @@
       <c r="CL13" s="2"/>
     </row>
     <row r="14" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="228">
+      <c r="A14" s="220">
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="230" t="str">
+      <c r="C14" s="222" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D14" s="232" t="str">
+      <c r="D14" s="224" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -8123,29 +8165,29 @@
       <c r="AJ14" s="87">
         <v>8</v>
       </c>
-      <c r="AK14" s="234">
+      <c r="AK14" s="226">
         <f t="shared" ref="AK14" si="4">((SUM(F14:AJ14))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F14:AJ14)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL14" s="234">
+      <c r="AL14" s="226">
         <f t="shared" ref="AL14" si="5">SUM(F15:AJ15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="236">
+      <c r="AM14" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F14:$AJ15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="238">
+      <c r="AN14" s="218">
         <f t="shared" ref="AN14" si="6">SUM(AK14:AM15)</f>
         <v>27</v>
       </c>
-      <c r="AO14" s="240">
+      <c r="AO14" s="216">
         <v>0</v>
       </c>
-      <c r="AP14" s="238"/>
-      <c r="AQ14" s="238"/>
-      <c r="AR14" s="238"/>
-      <c r="AS14" s="242"/>
+      <c r="AP14" s="218"/>
+      <c r="AQ14" s="218"/>
+      <c r="AR14" s="218"/>
+      <c r="AS14" s="228"/>
       <c r="AT14" s="79"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -8193,10 +8235,10 @@
       <c r="CL14" s="2"/>
     </row>
     <row r="15" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="229"/>
-      <c r="B15" s="229"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="233"/>
+      <c r="A15" s="221"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="88" t="s">
         <v>131</v>
       </c>
@@ -8231,15 +8273,15 @@
       <c r="AH15" s="89"/>
       <c r="AI15" s="89"/>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="235"/>
-      <c r="AL15" s="235"/>
-      <c r="AM15" s="237"/>
-      <c r="AN15" s="239"/>
-      <c r="AO15" s="241"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="239"/>
-      <c r="AS15" s="243"/>
+      <c r="AK15" s="227"/>
+      <c r="AL15" s="227"/>
+      <c r="AM15" s="231"/>
+      <c r="AN15" s="219"/>
+      <c r="AO15" s="217"/>
+      <c r="AP15" s="219"/>
+      <c r="AQ15" s="219"/>
+      <c r="AR15" s="219"/>
+      <c r="AS15" s="229"/>
       <c r="AT15" s="79"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -9310,32 +9352,19 @@
     <protectedRange password="CC78" sqref="B12:B15" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="53">
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -9350,19 +9379,32 @@
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AS14:AS15"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10">
     <cfRule type="expression" dxfId="22" priority="10" stopIfTrue="1">
@@ -9443,28 +9485,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 05 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -9567,10 +9609,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -9582,18 +9624,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -9601,13 +9643,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -9625,39 +9667,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -9671,10 +9713,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -9688,16 +9730,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -9938,12 +9980,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>1240000</v>
@@ -10240,12 +10282,12 @@
       <c r="Y16" s="175"/>
     </row>
     <row r="17" spans="1:25" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="257" t="s">
+      <c r="A17" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="257"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="257"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="163">
         <f>SUM(E13:E16)</f>
         <v>4500000</v>
@@ -10445,14 +10487,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AD10"/>
   <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -10469,6 +10503,14 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
@@ -10558,15 +10600,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -10716,19 +10758,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -10855,30 +10897,30 @@
         <f t="shared" si="0"/>
         <v>41821</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -10925,11 +10967,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>C.Nhật</v>
@@ -11063,13 +11105,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -11350,17 +11392,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -11448,29 +11490,29 @@
         <v>8</v>
       </c>
       <c r="AJ9" s="87"/>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>25</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f>SUM(AK9:AM10)</f>
         <v>25</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -11518,10 +11560,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -11556,15 +11598,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -11664,17 +11706,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>1</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Nguyễn Thị Thanh Thúy</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -11762,29 +11804,29 @@
         <v>8</v>
       </c>
       <c r="AJ12" s="87"/>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>25</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f>SUM(AK12:AM13)</f>
         <v>25</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="79"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -11832,10 +11874,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -11870,15 +11912,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="79"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -11926,18 +11968,18 @@
       <c r="CL13" s="2"/>
     </row>
     <row r="14" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="228">
+      <c r="A14" s="220">
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="230" t="str">
+      <c r="C14" s="222" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D14" s="232" t="str">
+      <c r="D14" s="224" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -12025,29 +12067,29 @@
         <v>8</v>
       </c>
       <c r="AJ14" s="87"/>
-      <c r="AK14" s="234">
+      <c r="AK14" s="226">
         <f t="shared" ref="AK14" si="4">((SUM(F14:AJ14))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F14:AJ14)/8)</f>
         <v>25</v>
       </c>
-      <c r="AL14" s="234">
+      <c r="AL14" s="226">
         <f t="shared" ref="AL14" si="5">SUM(F15:AJ15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="236">
+      <c r="AM14" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F14:$AJ15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="238">
+      <c r="AN14" s="218">
         <f t="shared" ref="AN14" si="6">SUM(AK14:AM15)</f>
         <v>25</v>
       </c>
-      <c r="AO14" s="240">
+      <c r="AO14" s="216">
         <v>0</v>
       </c>
-      <c r="AP14" s="238"/>
-      <c r="AQ14" s="238"/>
-      <c r="AR14" s="238"/>
-      <c r="AS14" s="242"/>
+      <c r="AP14" s="218"/>
+      <c r="AQ14" s="218"/>
+      <c r="AR14" s="218"/>
+      <c r="AS14" s="228"/>
       <c r="AT14" s="79"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -12095,10 +12137,10 @@
       <c r="CL14" s="2"/>
     </row>
     <row r="15" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="229"/>
-      <c r="B15" s="229"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="233"/>
+      <c r="A15" s="221"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="88" t="s">
         <v>131</v>
       </c>
@@ -12133,15 +12175,15 @@
       <c r="AH15" s="89"/>
       <c r="AI15" s="89"/>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="235"/>
-      <c r="AL15" s="235"/>
-      <c r="AM15" s="237"/>
-      <c r="AN15" s="239"/>
-      <c r="AO15" s="241"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="239"/>
-      <c r="AS15" s="243"/>
+      <c r="AK15" s="227"/>
+      <c r="AL15" s="227"/>
+      <c r="AM15" s="231"/>
+      <c r="AN15" s="219"/>
+      <c r="AO15" s="217"/>
+      <c r="AP15" s="219"/>
+      <c r="AQ15" s="219"/>
+      <c r="AR15" s="219"/>
+      <c r="AS15" s="229"/>
       <c r="AT15" s="79"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -13212,12 +13254,37 @@
     <protectedRange password="CC78" sqref="B12:B15" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="53">
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AO9:AO10"/>
     <mergeCell ref="AS12:AS13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
@@ -13234,37 +13301,12 @@
     <mergeCell ref="AL12:AL13"/>
     <mergeCell ref="AM12:AM13"/>
     <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10">
     <cfRule type="expression" dxfId="18" priority="16" stopIfTrue="1">
@@ -13355,28 +13397,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 06 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -13479,10 +13521,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -13494,18 +13536,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -13513,13 +13555,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -13537,39 +13579,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -13583,10 +13625,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -13600,16 +13642,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -13850,12 +13892,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>1240000</v>
@@ -14152,12 +14194,12 @@
       <c r="Y16" s="175"/>
     </row>
     <row r="17" spans="1:25" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="257" t="s">
+      <c r="A17" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="257"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="257"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="163">
         <f>SUM(E13:E16)</f>
         <v>4500000</v>
@@ -14357,14 +14399,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AD10"/>
   <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -14381,6 +14415,14 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
@@ -14469,15 +14511,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -14627,19 +14669,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -14766,30 +14808,30 @@
         <f t="shared" si="0"/>
         <v>41851</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -14836,11 +14878,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Ba</v>
@@ -14974,13 +15016,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -15261,17 +15303,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -15363,29 +15405,29 @@
       <c r="AJ9" s="87">
         <v>8</v>
       </c>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f>SUM(AK9:AM10)</f>
         <v>27</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -15433,10 +15475,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -15471,15 +15513,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -15579,17 +15621,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>1</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Nguyễn Thị Thanh Thúy</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -15663,29 +15705,29 @@
       <c r="AH12" s="87"/>
       <c r="AI12" s="87"/>
       <c r="AJ12" s="87"/>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>17.428058</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f t="shared" ref="AN12" si="4">SUM(AK12:AM13)</f>
         <v>17.428058</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="195"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -15733,10 +15775,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -15771,15 +15813,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="195"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -15827,17 +15869,17 @@
       <c r="CL13" s="2"/>
     </row>
     <row r="14" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="228">
+      <c r="A14" s="220">
         <v>2</v>
       </c>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="230" t="str">
+      <c r="C14" s="222" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D14" s="232" t="str">
+      <c r="D14" s="224" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -15929,29 +15971,29 @@
       <c r="AJ14" s="87">
         <v>8</v>
       </c>
-      <c r="AK14" s="234">
+      <c r="AK14" s="226">
         <f t="shared" ref="AK14" si="5">((SUM(F14:AJ14))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F14:AJ14)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL14" s="234">
+      <c r="AL14" s="226">
         <f t="shared" ref="AL14" si="6">SUM(F15:AJ15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="236">
+      <c r="AM14" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F14:$AJ15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="238">
+      <c r="AN14" s="218">
         <f t="shared" ref="AN14" si="7">SUM(AK14:AM15)</f>
         <v>27</v>
       </c>
-      <c r="AO14" s="240">
+      <c r="AO14" s="216">
         <v>0</v>
       </c>
-      <c r="AP14" s="238"/>
-      <c r="AQ14" s="238"/>
-      <c r="AR14" s="238"/>
-      <c r="AS14" s="242"/>
+      <c r="AP14" s="218"/>
+      <c r="AQ14" s="218"/>
+      <c r="AR14" s="218"/>
+      <c r="AS14" s="228"/>
       <c r="AT14" s="79"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -15999,10 +16041,10 @@
       <c r="CL14" s="2"/>
     </row>
     <row r="15" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="229"/>
-      <c r="B15" s="229"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="233"/>
+      <c r="A15" s="221"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="88" t="s">
         <v>131</v>
       </c>
@@ -16037,15 +16079,15 @@
       <c r="AH15" s="89"/>
       <c r="AI15" s="89"/>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="235"/>
-      <c r="AL15" s="235"/>
-      <c r="AM15" s="237"/>
-      <c r="AN15" s="239"/>
-      <c r="AO15" s="241"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="239"/>
-      <c r="AS15" s="243"/>
+      <c r="AK15" s="227"/>
+      <c r="AL15" s="227"/>
+      <c r="AM15" s="231"/>
+      <c r="AN15" s="219"/>
+      <c r="AO15" s="217"/>
+      <c r="AP15" s="219"/>
+      <c r="AQ15" s="219"/>
+      <c r="AR15" s="219"/>
+      <c r="AS15" s="229"/>
       <c r="AT15" s="79"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -17116,40 +17158,12 @@
     <protectedRange password="CC78" sqref="B12:B15" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="53">
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
     <mergeCell ref="AM1:AS1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -17163,12 +17177,40 @@
     <mergeCell ref="AQ5:AQ6"/>
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10 F14:AJ15">
     <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
@@ -17244,28 +17286,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 07 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -17368,10 +17410,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -17383,18 +17425,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -17402,13 +17444,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -17426,39 +17468,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -17472,10 +17514,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -17489,16 +17531,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -17739,12 +17781,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>1240000</v>
@@ -18040,12 +18082,12 @@
       <c r="Y16" s="175"/>
     </row>
     <row r="17" spans="1:25" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="257" t="s">
+      <c r="A17" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="257"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="257"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="163">
         <f>SUM(E13:E16)</f>
         <v>4500000</v>
@@ -18245,14 +18287,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AD10"/>
   <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -18269,6 +18303,14 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
@@ -18357,15 +18399,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -18515,19 +18557,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -18654,30 +18696,30 @@
         <f t="shared" si="0"/>
         <v>41882</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -18724,11 +18766,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Sáu</v>
@@ -18862,13 +18904,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -19149,17 +19191,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -19249,29 +19291,29 @@
         <v>8</v>
       </c>
       <c r="AJ9" s="87"/>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f>SUM(AK9:AM10)</f>
         <v>26</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -19319,10 +19361,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -19357,15 +19399,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -19465,17 +19507,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>1</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -19565,29 +19607,29 @@
         <v>8</v>
       </c>
       <c r="AJ12" s="87"/>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f t="shared" ref="AN12" si="4">SUM(AK12:AM13)</f>
         <v>26</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="79"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -19635,10 +19677,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -19673,15 +19715,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="79"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -20752,19 +20794,19 @@
     <protectedRange password="CC78" sqref="B12:B13" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="40">
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AO9:AO10"/>
@@ -20779,19 +20821,19 @@
     <mergeCell ref="AP9:AP10"/>
     <mergeCell ref="AQ9:AQ10"/>
     <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10 F12:AJ13">
     <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
@@ -20862,28 +20904,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 08 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -20986,10 +21028,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -21001,18 +21043,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -21020,13 +21062,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -21044,39 +21086,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -21090,10 +21132,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -21107,16 +21149,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -21357,12 +21399,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>1240000</v>
@@ -21572,12 +21614,12 @@
       <c r="Y15" s="175"/>
     </row>
     <row r="16" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="257" t="s">
+      <c r="A16" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="257"/>
-      <c r="C16" s="257"/>
-      <c r="D16" s="257"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="244"/>
       <c r="E16" s="163">
         <f>SUM(E13:E15)</f>
         <v>2500000</v>
@@ -21777,14 +21819,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AD10"/>
   <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -21801,6 +21835,14 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
@@ -21890,15 +21932,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -22048,19 +22090,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -22187,30 +22229,30 @@
         <f t="shared" si="0"/>
         <v>41913</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -22257,11 +22299,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Hai</v>
@@ -22395,13 +22437,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -22682,17 +22724,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -22782,29 +22824,29 @@
         <v>8</v>
       </c>
       <c r="AJ9" s="87"/>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f>SUM(AK9:AM10)</f>
         <v>26</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -22852,10 +22894,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -22890,15 +22932,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -22998,17 +23040,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>2</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -23098,29 +23140,29 @@
         <v>8</v>
       </c>
       <c r="AJ12" s="87"/>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f t="shared" ref="AN12" si="4">SUM(AK12:AM13)</f>
         <v>26</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="79"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -23168,10 +23210,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -23206,15 +23248,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="79"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -24285,19 +24327,19 @@
     <protectedRange password="CC78" sqref="B12:B13" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="40">
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AO9:AO10"/>
@@ -24312,19 +24354,19 @@
     <mergeCell ref="AP9:AP10"/>
     <mergeCell ref="AQ9:AQ10"/>
     <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10 F12:AJ13">
     <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
@@ -24395,28 +24437,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 09 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -24519,10 +24561,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -24534,18 +24576,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -24553,13 +24595,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -24577,39 +24619,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -24623,10 +24665,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -24640,16 +24682,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -24890,12 +24932,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>1240000</v>
@@ -25105,12 +25147,12 @@
       <c r="Y15" s="175"/>
     </row>
     <row r="16" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="257" t="s">
+      <c r="A16" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="257"/>
-      <c r="C16" s="257"/>
-      <c r="D16" s="257"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="244"/>
       <c r="E16" s="163">
         <f>SUM(E13:E15)</f>
         <v>2500000</v>
@@ -25310,14 +25352,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AD10"/>
   <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -25334,6 +25368,14 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
@@ -25422,15 +25464,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -25580,19 +25622,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -25719,30 +25761,30 @@
         <f t="shared" si="0"/>
         <v>41670</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -25789,11 +25831,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Tư</v>
@@ -25927,13 +25969,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -26214,17 +26256,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -26316,29 +26358,29 @@
       <c r="AJ9" s="87">
         <v>8</v>
       </c>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f t="shared" ref="AK9" si="2">((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f t="shared" ref="AL9" si="3">SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f t="shared" ref="AM9" si="4">SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f t="shared" ref="AN9" si="5">SUM(AK9:AM10)</f>
         <v>27</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -26386,10 +26428,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -26424,15 +26466,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -26532,17 +26574,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>1</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Nguyễn Thị Thanh Thúy</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -26634,29 +26676,29 @@
       <c r="AJ12" s="87">
         <v>8</v>
       </c>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="6">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="7">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f>SUM(AK12:AM13)</f>
         <v>27</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="79"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -26704,10 +26746,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -26742,15 +26784,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="79"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -26798,18 +26840,18 @@
       <c r="CL13" s="2"/>
     </row>
     <row r="14" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="228">
+      <c r="A14" s="220">
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="230" t="str">
+      <c r="C14" s="222" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D14" s="232" t="str">
+      <c r="D14" s="224" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -26901,29 +26943,29 @@
       <c r="AJ14" s="87">
         <v>8</v>
       </c>
-      <c r="AK14" s="234">
+      <c r="AK14" s="226">
         <f t="shared" ref="AK14" si="8">((SUM(F14:AJ14))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F14:AJ14)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL14" s="234">
+      <c r="AL14" s="226">
         <f t="shared" ref="AL14" si="9">SUM(F15:AJ15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="236">
+      <c r="AM14" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F14:$AJ15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="238">
+      <c r="AN14" s="218">
         <f t="shared" ref="AN14" si="10">SUM(AK14:AM15)</f>
         <v>27</v>
       </c>
-      <c r="AO14" s="240">
+      <c r="AO14" s="216">
         <v>0</v>
       </c>
-      <c r="AP14" s="238"/>
-      <c r="AQ14" s="238"/>
-      <c r="AR14" s="238"/>
-      <c r="AS14" s="242"/>
+      <c r="AP14" s="218"/>
+      <c r="AQ14" s="218"/>
+      <c r="AR14" s="218"/>
+      <c r="AS14" s="228"/>
       <c r="AT14" s="79"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -26971,10 +27013,10 @@
       <c r="CL14" s="2"/>
     </row>
     <row r="15" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="229"/>
-      <c r="B15" s="229"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="233"/>
+      <c r="A15" s="221"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="88" t="s">
         <v>131</v>
       </c>
@@ -27009,15 +27051,15 @@
       <c r="AH15" s="89"/>
       <c r="AI15" s="89"/>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="235"/>
-      <c r="AL15" s="235"/>
-      <c r="AM15" s="237"/>
-      <c r="AN15" s="239"/>
-      <c r="AO15" s="241"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="239"/>
-      <c r="AS15" s="243"/>
+      <c r="AK15" s="227"/>
+      <c r="AL15" s="227"/>
+      <c r="AM15" s="231"/>
+      <c r="AN15" s="219"/>
+      <c r="AO15" s="217"/>
+      <c r="AP15" s="219"/>
+      <c r="AQ15" s="219"/>
+      <c r="AR15" s="219"/>
+      <c r="AS15" s="229"/>
       <c r="AT15" s="79"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -28088,16 +28130,33 @@
     <protectedRange password="CC78" sqref="B12:B15" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="53">
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AS9:AS10"/>
     <mergeCell ref="AS14:AS15"/>
     <mergeCell ref="AM14:AM15"/>
     <mergeCell ref="AN14:AN15"/>
@@ -28114,33 +28173,16 @@
     <mergeCell ref="AQ12:AQ13"/>
     <mergeCell ref="AR12:AR13"/>
     <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10">
     <cfRule type="expression" dxfId="42" priority="16" stopIfTrue="1">
@@ -28251,15 +28293,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -28409,19 +28451,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -28548,30 +28590,30 @@
         <f t="shared" si="0"/>
         <v>41943</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -28618,11 +28660,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Tư</v>
@@ -28756,13 +28798,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -29043,17 +29085,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -29145,29 +29187,29 @@
       <c r="AJ9" s="87">
         <v>8</v>
       </c>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f>SUM(AK9:AM10)</f>
         <v>27</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -29215,10 +29257,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -29253,15 +29295,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -29361,17 +29403,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>1</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -29463,29 +29505,29 @@
       <c r="AJ12" s="87">
         <v>8</v>
       </c>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f t="shared" ref="AN12" si="4">SUM(AK12:AM13)</f>
         <v>27</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="79"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -29533,10 +29575,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -29571,15 +29613,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="79"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -30650,19 +30692,19 @@
     <protectedRange password="CC78" sqref="B12:B13" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="40">
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AO9:AO10"/>
@@ -30677,19 +30719,19 @@
     <mergeCell ref="AP9:AP10"/>
     <mergeCell ref="AQ9:AQ10"/>
     <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10 F12:AJ13">
     <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
@@ -30760,28 +30802,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 10 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -30884,10 +30926,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -30899,18 +30941,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -30918,13 +30960,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -30942,39 +30984,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -30988,10 +31030,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -31005,16 +31047,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -31255,12 +31297,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>1240000</v>
@@ -31470,12 +31512,12 @@
       <c r="Y15" s="175"/>
     </row>
     <row r="16" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="257" t="s">
+      <c r="A16" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="257"/>
-      <c r="C16" s="257"/>
-      <c r="D16" s="257"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="244"/>
       <c r="E16" s="163">
         <f>SUM(E13:E15)</f>
         <v>2500000</v>
@@ -31675,14 +31717,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AD10"/>
   <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -31699,6 +31733,14 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
@@ -31788,15 +31830,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -31946,19 +31988,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -32085,30 +32127,30 @@
         <f t="shared" si="0"/>
         <v>41974</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -32155,11 +32197,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Bảy</v>
@@ -32293,13 +32335,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -32580,17 +32622,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -32678,29 +32720,29 @@
       </c>
       <c r="AI9" s="87"/>
       <c r="AJ9" s="87"/>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>25</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f>SUM(AK9:AM10)</f>
         <v>25</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -32748,10 +32790,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -32786,15 +32828,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -32894,17 +32936,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>1</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -32992,29 +33034,29 @@
       </c>
       <c r="AI12" s="87"/>
       <c r="AJ12" s="87"/>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>25</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f t="shared" ref="AN12" si="4">SUM(AK12:AM13)</f>
         <v>25</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="79"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -33062,10 +33104,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -33100,15 +33142,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="79"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -34179,19 +34221,19 @@
     <protectedRange password="CC78" sqref="B12:B13" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="40">
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -34206,19 +34248,19 @@
     <mergeCell ref="AP9:AP10"/>
     <mergeCell ref="AQ9:AQ10"/>
     <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10 F12:AJ13">
     <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
@@ -34289,28 +34331,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 11 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -34413,10 +34455,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -34428,18 +34470,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -34447,13 +34489,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -34471,39 +34513,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -34517,10 +34559,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -34534,16 +34576,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -34784,12 +34826,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>1240000</v>
@@ -34999,12 +35041,12 @@
       <c r="Y15" s="175"/>
     </row>
     <row r="16" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="257" t="s">
+      <c r="A16" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="257"/>
-      <c r="C16" s="257"/>
-      <c r="D16" s="257"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="244"/>
       <c r="E16" s="163">
         <f>SUM(E13:E15)</f>
         <v>2500000</v>
@@ -35204,6 +35246,14 @@
   </protectedRanges>
   <autoFilter ref="A7:AD10"/>
   <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -35220,14 +35270,6 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
@@ -35316,15 +35358,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -35474,19 +35516,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -35613,30 +35655,30 @@
         <f t="shared" si="0"/>
         <v>42004</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -35683,11 +35725,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Hai</v>
@@ -35821,13 +35863,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -36108,17 +36150,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -36210,29 +36252,29 @@
       <c r="AJ9" s="87">
         <v>8</v>
       </c>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f>SUM(AK9:AM10)</f>
         <v>27</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -36280,10 +36322,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -36318,15 +36360,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -36426,17 +36468,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>1</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -36528,29 +36570,29 @@
       <c r="AJ12" s="87">
         <v>8</v>
       </c>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>27</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f t="shared" ref="AN12" si="4">SUM(AK12:AM13)</f>
         <v>27</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="79"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -36598,10 +36640,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -36636,15 +36678,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="79"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -37715,19 +37757,19 @@
     <protectedRange password="CC78" sqref="B12:B13" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="40">
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -37742,19 +37784,19 @@
     <mergeCell ref="AP9:AP10"/>
     <mergeCell ref="AQ9:AQ10"/>
     <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10 F12:AJ13">
     <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
@@ -37825,28 +37867,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 12 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -37949,10 +37991,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -37964,18 +38006,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -37983,13 +38025,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -38007,39 +38049,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -38053,10 +38095,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -38070,16 +38112,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -38320,12 +38362,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>1240000</v>
@@ -38535,12 +38577,12 @@
       <c r="Y15" s="175"/>
     </row>
     <row r="16" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="257" t="s">
+      <c r="A16" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="257"/>
-      <c r="C16" s="257"/>
-      <c r="D16" s="257"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="244"/>
       <c r="E16" s="163">
         <f>SUM(E13:E15)</f>
         <v>2500000</v>
@@ -38740,6 +38782,14 @@
   </protectedRanges>
   <autoFilter ref="A7:AD10"/>
   <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -38756,14 +38806,6 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
@@ -38822,28 +38864,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 01 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -38946,10 +38988,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -38961,18 +39003,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -38980,13 +39022,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -39004,39 +39046,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -39050,10 +39092,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -39067,16 +39109,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -39317,12 +39359,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>740000</v>
@@ -39619,12 +39661,12 @@
       <c r="Y16" s="175"/>
     </row>
     <row r="17" spans="1:25" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="257" t="s">
+      <c r="A17" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="257"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="257"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="163">
         <f>SUM(E13:E16)</f>
         <v>4500000</v>
@@ -39824,14 +39866,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AD9"/>
   <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -39848,6 +39882,14 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
@@ -39936,15 +39978,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -40094,19 +40136,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -40233,30 +40275,30 @@
         <f t="shared" si="0"/>
         <v>41701</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -40303,11 +40345,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Bảy</v>
@@ -40441,13 +40483,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -40728,17 +40770,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -40824,29 +40866,29 @@
       <c r="AH9" s="87"/>
       <c r="AI9" s="87"/>
       <c r="AJ9" s="87"/>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>24</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f>SUM(AK9:AM10)</f>
         <v>24</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -40894,10 +40936,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -40932,15 +40974,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -41040,17 +41082,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>1</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Nguyễn Thị Thanh Thúy</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -41136,29 +41178,29 @@
       <c r="AH12" s="87"/>
       <c r="AI12" s="87"/>
       <c r="AJ12" s="87"/>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>24</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f>SUM(AK12:AM13)</f>
         <v>24</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="79"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -41206,10 +41248,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -41244,15 +41286,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="79"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -41300,18 +41342,18 @@
       <c r="CL13" s="2"/>
     </row>
     <row r="14" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="228">
+      <c r="A14" s="220">
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="230" t="str">
+      <c r="C14" s="222" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D14" s="232" t="str">
+      <c r="D14" s="224" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -41397,29 +41439,29 @@
       <c r="AH14" s="87"/>
       <c r="AI14" s="87"/>
       <c r="AJ14" s="87"/>
-      <c r="AK14" s="234">
+      <c r="AK14" s="226">
         <f t="shared" ref="AK14" si="4">((SUM(F14:AJ14))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F14:AJ14)/8)</f>
         <v>24</v>
       </c>
-      <c r="AL14" s="234">
+      <c r="AL14" s="226">
         <f t="shared" ref="AL14" si="5">SUM(F15:AJ15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="236">
+      <c r="AM14" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F14:$AJ15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="238">
+      <c r="AN14" s="218">
         <f t="shared" ref="AN14" si="6">SUM(AK14:AM15)</f>
         <v>24</v>
       </c>
-      <c r="AO14" s="240">
+      <c r="AO14" s="216">
         <v>0</v>
       </c>
-      <c r="AP14" s="238"/>
-      <c r="AQ14" s="238"/>
-      <c r="AR14" s="238"/>
-      <c r="AS14" s="242"/>
+      <c r="AP14" s="218"/>
+      <c r="AQ14" s="218"/>
+      <c r="AR14" s="218"/>
+      <c r="AS14" s="228"/>
       <c r="AT14" s="79"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -41467,10 +41509,10 @@
       <c r="CL14" s="2"/>
     </row>
     <row r="15" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="229"/>
-      <c r="B15" s="229"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="233"/>
+      <c r="A15" s="221"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="88" t="s">
         <v>131</v>
       </c>
@@ -41505,15 +41547,15 @@
       <c r="AH15" s="89"/>
       <c r="AI15" s="89"/>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="235"/>
-      <c r="AL15" s="235"/>
-      <c r="AM15" s="237"/>
-      <c r="AN15" s="239"/>
-      <c r="AO15" s="241"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="239"/>
-      <c r="AS15" s="243"/>
+      <c r="AK15" s="227"/>
+      <c r="AL15" s="227"/>
+      <c r="AM15" s="231"/>
+      <c r="AN15" s="219"/>
+      <c r="AO15" s="217"/>
+      <c r="AP15" s="219"/>
+      <c r="AQ15" s="219"/>
+      <c r="AR15" s="219"/>
+      <c r="AS15" s="229"/>
       <c r="AT15" s="79"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -42584,12 +42626,37 @@
     <protectedRange password="CC78" sqref="B12:B15" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="53">
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AO9:AO10"/>
     <mergeCell ref="AS12:AS13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
@@ -42606,37 +42673,12 @@
     <mergeCell ref="AL12:AL13"/>
     <mergeCell ref="AM12:AM13"/>
     <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10">
     <cfRule type="expression" dxfId="38" priority="8" stopIfTrue="1">
@@ -42727,28 +42769,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 02 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -42851,10 +42893,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -42866,18 +42908,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -42885,13 +42927,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -42909,39 +42951,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -42955,10 +42997,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -42972,16 +43014,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -43222,12 +43264,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>740000</v>
@@ -43524,12 +43566,12 @@
       <c r="Y16" s="175"/>
     </row>
     <row r="17" spans="1:25" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="257" t="s">
+      <c r="A17" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="257"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="257"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="163">
         <f>SUM(E13:E16)</f>
         <v>4500000</v>
@@ -43729,14 +43771,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AD10"/>
   <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -43753,6 +43787,14 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
@@ -43841,15 +43883,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -43999,19 +44041,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -44138,30 +44180,30 @@
         <f t="shared" si="0"/>
         <v>41729</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -44208,11 +44250,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Bảy</v>
@@ -44346,13 +44388,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -44633,17 +44675,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -44733,29 +44775,29 @@
       <c r="AJ9" s="87">
         <v>8</v>
       </c>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f>SUM(AK9:AM10)</f>
         <v>26</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -44803,10 +44845,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -44841,15 +44883,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -44949,17 +44991,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>1</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Nguyễn Thị Thanh Thúy</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -45049,29 +45091,29 @@
       <c r="AJ12" s="87">
         <v>8</v>
       </c>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f>SUM(AK12:AM13)</f>
         <v>26</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="79"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -45119,10 +45161,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -45157,15 +45199,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="79"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -45213,18 +45255,18 @@
       <c r="CL13" s="2"/>
     </row>
     <row r="14" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="228">
+      <c r="A14" s="220">
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="230" t="str">
+      <c r="C14" s="222" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D14" s="232" t="str">
+      <c r="D14" s="224" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -45314,29 +45356,29 @@
       <c r="AJ14" s="87">
         <v>8</v>
       </c>
-      <c r="AK14" s="234">
+      <c r="AK14" s="226">
         <f t="shared" ref="AK14" si="4">((SUM(F14:AJ14))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F14:AJ14)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL14" s="234">
+      <c r="AL14" s="226">
         <f t="shared" ref="AL14" si="5">SUM(F15:AJ15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="236">
+      <c r="AM14" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F14:$AJ15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="238">
+      <c r="AN14" s="218">
         <f t="shared" ref="AN14" si="6">SUM(AK14:AM15)</f>
         <v>26</v>
       </c>
-      <c r="AO14" s="240">
+      <c r="AO14" s="216">
         <v>0</v>
       </c>
-      <c r="AP14" s="238"/>
-      <c r="AQ14" s="238"/>
-      <c r="AR14" s="238"/>
-      <c r="AS14" s="242"/>
+      <c r="AP14" s="218"/>
+      <c r="AQ14" s="218"/>
+      <c r="AR14" s="218"/>
+      <c r="AS14" s="228"/>
       <c r="AT14" s="79"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -45384,10 +45426,10 @@
       <c r="CL14" s="2"/>
     </row>
     <row r="15" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="229"/>
-      <c r="B15" s="229"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="233"/>
+      <c r="A15" s="221"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="88" t="s">
         <v>131</v>
       </c>
@@ -45422,15 +45464,15 @@
       <c r="AH15" s="89"/>
       <c r="AI15" s="89"/>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="235"/>
-      <c r="AL15" s="235"/>
-      <c r="AM15" s="237"/>
-      <c r="AN15" s="239"/>
-      <c r="AO15" s="241"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="239"/>
-      <c r="AS15" s="243"/>
+      <c r="AK15" s="227"/>
+      <c r="AL15" s="227"/>
+      <c r="AM15" s="231"/>
+      <c r="AN15" s="219"/>
+      <c r="AO15" s="217"/>
+      <c r="AP15" s="219"/>
+      <c r="AQ15" s="219"/>
+      <c r="AR15" s="219"/>
+      <c r="AS15" s="229"/>
       <c r="AT15" s="79"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -46501,32 +46543,19 @@
     <protectedRange password="CC78" sqref="B12:B15" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="53">
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -46541,19 +46570,32 @@
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AS14:AS15"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10">
     <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
@@ -46593,7 +46635,7 @@
   </sheetPr>
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E19" sqref="E19"/>
       <selection pane="topRight" activeCell="E19" sqref="E19"/>
@@ -46634,28 +46676,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 03 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -46758,10 +46800,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -46773,18 +46815,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -46792,13 +46834,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -46816,39 +46858,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -46862,10 +46904,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -46879,16 +46921,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -47129,12 +47171,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>740000</v>
@@ -47431,12 +47473,12 @@
       <c r="Y16" s="175"/>
     </row>
     <row r="17" spans="1:25" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="257" t="s">
+      <c r="A17" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="257"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="257"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="163">
         <f>SUM(E13:E16)</f>
         <v>4500000</v>
@@ -47636,14 +47678,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AD10"/>
   <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -47660,6 +47694,14 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
@@ -47749,15 +47791,15 @@
       <c r="AJ1" s="55"/>
       <c r="AK1" s="57"/>
       <c r="AL1" s="57"/>
-      <c r="AM1" s="216" t="s">
+      <c r="AM1" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="218"/>
+      <c r="AN1" s="234"/>
+      <c r="AO1" s="234"/>
+      <c r="AP1" s="234"/>
+      <c r="AQ1" s="234"/>
+      <c r="AR1" s="234"/>
+      <c r="AS1" s="235"/>
       <c r="AT1" s="58"/>
     </row>
     <row r="2" spans="1:91" ht="20.25">
@@ -47907,19 +47949,19 @@
       <c r="AT4" s="72"/>
     </row>
     <row r="5" spans="1:91" s="74" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="236" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="221" t="s">
+      <c r="D5" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="219" t="s">
+      <c r="E5" s="236" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="73">
@@ -48046,30 +48088,30 @@
         <f t="shared" si="0"/>
         <v>41760</v>
       </c>
-      <c r="AK5" s="222" t="s">
+      <c r="AK5" s="239" t="s">
         <v>123</v>
       </c>
-      <c r="AL5" s="223"/>
-      <c r="AM5" s="224"/>
-      <c r="AN5" s="225" t="s">
+      <c r="AL5" s="240"/>
+      <c r="AM5" s="241"/>
+      <c r="AN5" s="242" t="s">
         <v>124</v>
       </c>
-      <c r="AO5" s="225" t="s">
+      <c r="AO5" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="AP5" s="225" t="s">
+      <c r="AP5" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="AQ5" s="225" t="s">
+      <c r="AQ5" s="242" t="s">
         <v>127</v>
       </c>
-      <c r="AR5" s="225" t="s">
+      <c r="AR5" s="242" t="s">
         <v>128</v>
       </c>
-      <c r="AS5" s="221" t="s">
+      <c r="AS5" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AT5" s="227"/>
+      <c r="AT5" s="232"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -48116,11 +48158,11 @@
       <c r="CM5" s="2"/>
     </row>
     <row r="6" spans="1:91" s="74" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
       <c r="F6" s="75" t="str">
         <f>CHOOSE(WEEKDAY(F5),"C.Nhật","T.Hai","T.Ba","T.Tư","T.Năm","T.Sáu","T.Bảy")</f>
         <v>T.Ba</v>
@@ -48254,13 +48296,13 @@
       <c r="AM6" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="226"/>
-      <c r="AO6" s="226"/>
-      <c r="AP6" s="226"/>
-      <c r="AQ6" s="226"/>
-      <c r="AR6" s="226"/>
-      <c r="AS6" s="220"/>
-      <c r="AT6" s="227"/>
+      <c r="AN6" s="243"/>
+      <c r="AO6" s="243"/>
+      <c r="AP6" s="243"/>
+      <c r="AQ6" s="243"/>
+      <c r="AR6" s="243"/>
+      <c r="AS6" s="237"/>
+      <c r="AT6" s="232"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -48541,17 +48583,17 @@
       <c r="AT8" s="84"/>
     </row>
     <row r="9" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="228">
+      <c r="A9" s="220">
         <v>1</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="222" t="str">
         <f>VLOOKUP(B9,DS,2,0)</f>
         <v>Hồ Thị An</v>
       </c>
-      <c r="D9" s="232" t="str">
+      <c r="D9" s="224" t="str">
         <f>VLOOKUP(B9,DS,3,0)</f>
         <v>Kế Toán</v>
       </c>
@@ -48641,29 +48683,29 @@
         <v>8</v>
       </c>
       <c r="AJ9" s="87"/>
-      <c r="AK9" s="234">
+      <c r="AK9" s="226">
         <f>((SUM(F9:AJ9))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F9:AJ9)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL9" s="234">
+      <c r="AL9" s="226">
         <f>SUM(F10:AJ10)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="236">
+      <c r="AM9" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F9:$AJ10)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="238">
+      <c r="AN9" s="218">
         <f>SUM(AK9:AM10)</f>
         <v>26</v>
       </c>
-      <c r="AO9" s="240">
+      <c r="AO9" s="216">
         <v>0</v>
       </c>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="238"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="242"/>
+      <c r="AP9" s="218"/>
+      <c r="AQ9" s="218"/>
+      <c r="AR9" s="218"/>
+      <c r="AS9" s="228"/>
       <c r="AT9" s="79"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
@@ -48711,10 +48753,10 @@
       <c r="CM9" s="2"/>
     </row>
     <row r="10" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="229"/>
-      <c r="B10" s="229"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="233"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="225"/>
       <c r="E10" s="88" t="s">
         <v>131</v>
       </c>
@@ -48749,15 +48791,15 @@
       <c r="AH10" s="89"/>
       <c r="AI10" s="89"/>
       <c r="AJ10" s="89"/>
-      <c r="AK10" s="235"/>
-      <c r="AL10" s="235"/>
-      <c r="AM10" s="237"/>
-      <c r="AN10" s="239"/>
-      <c r="AO10" s="241"/>
-      <c r="AP10" s="239"/>
-      <c r="AQ10" s="239"/>
-      <c r="AR10" s="239"/>
-      <c r="AS10" s="243"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="227"/>
+      <c r="AM10" s="231"/>
+      <c r="AN10" s="219"/>
+      <c r="AO10" s="217"/>
+      <c r="AP10" s="219"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="229"/>
       <c r="AT10" s="79"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -48857,17 +48899,17 @@
       <c r="AT11" s="84"/>
     </row>
     <row r="12" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="228">
+      <c r="A12" s="220">
         <v>1</v>
       </c>
-      <c r="B12" s="228" t="s">
+      <c r="B12" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="230" t="str">
+      <c r="C12" s="222" t="str">
         <f>VLOOKUP(B12,DS,2,0)</f>
         <v>Nguyễn Thị Thanh Thúy</v>
       </c>
-      <c r="D12" s="232" t="str">
+      <c r="D12" s="224" t="str">
         <f>VLOOKUP(B12,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -48957,29 +48999,29 @@
         <v>8</v>
       </c>
       <c r="AJ12" s="87"/>
-      <c r="AK12" s="234">
+      <c r="AK12" s="226">
         <f t="shared" ref="AK12" si="2">((SUM(F12:AJ12))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F12:AJ12)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL12" s="234">
+      <c r="AL12" s="226">
         <f t="shared" ref="AL12" si="3">SUM(F13:AJ13)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="236">
+      <c r="AM12" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F12:$AJ13)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="238">
+      <c r="AN12" s="218">
         <f>SUM(AK12:AM13)</f>
         <v>26</v>
       </c>
-      <c r="AO12" s="240">
+      <c r="AO12" s="216">
         <v>0</v>
       </c>
-      <c r="AP12" s="238"/>
-      <c r="AQ12" s="238"/>
-      <c r="AR12" s="238"/>
-      <c r="AS12" s="242"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="228"/>
       <c r="AT12" s="79"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
@@ -49027,10 +49069,10 @@
       <c r="CL12" s="2"/>
     </row>
     <row r="13" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="229"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="233"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="88" t="s">
         <v>131</v>
       </c>
@@ -49065,15 +49107,15 @@
       <c r="AH13" s="89"/>
       <c r="AI13" s="89"/>
       <c r="AJ13" s="89"/>
-      <c r="AK13" s="235"/>
-      <c r="AL13" s="235"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="239"/>
-      <c r="AO13" s="241"/>
-      <c r="AP13" s="239"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="239"/>
-      <c r="AS13" s="243"/>
+      <c r="AK13" s="227"/>
+      <c r="AL13" s="227"/>
+      <c r="AM13" s="231"/>
+      <c r="AN13" s="219"/>
+      <c r="AO13" s="217"/>
+      <c r="AP13" s="219"/>
+      <c r="AQ13" s="219"/>
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="229"/>
       <c r="AT13" s="79"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
@@ -49121,18 +49163,18 @@
       <c r="CL13" s="2"/>
     </row>
     <row r="14" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="228">
+      <c r="A14" s="220">
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="230" t="str">
+      <c r="C14" s="222" t="str">
         <f>VLOOKUP(B14,DS,2,0)</f>
         <v>Huỳnh Đoàn Viết Thanh</v>
       </c>
-      <c r="D14" s="232" t="str">
+      <c r="D14" s="224" t="str">
         <f>VLOOKUP(B14,DS,3,0)</f>
         <v>Công nhân</v>
       </c>
@@ -49222,29 +49264,29 @@
         <v>8</v>
       </c>
       <c r="AJ14" s="87"/>
-      <c r="AK14" s="234">
+      <c r="AK14" s="226">
         <f t="shared" ref="AK14" si="4">((SUM(F14:AJ14))/8)-(SUMIF($F$6:$AJ$6,"C.Nhật",F14:AJ14)/8)</f>
         <v>26</v>
       </c>
-      <c r="AL14" s="234">
+      <c r="AL14" s="226">
         <f t="shared" ref="AL14" si="5">SUM(F15:AJ15)/8*1.5</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="236">
+      <c r="AM14" s="230">
         <f>SUMIF($F$6:$AJ$6,"C.Nhật",$F14:$AJ15)/8*2</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="238">
+      <c r="AN14" s="218">
         <f t="shared" ref="AN14" si="6">SUM(AK14:AM15)</f>
         <v>26</v>
       </c>
-      <c r="AO14" s="240">
+      <c r="AO14" s="216">
         <v>0</v>
       </c>
-      <c r="AP14" s="238"/>
-      <c r="AQ14" s="238"/>
-      <c r="AR14" s="238"/>
-      <c r="AS14" s="242"/>
+      <c r="AP14" s="218"/>
+      <c r="AQ14" s="218"/>
+      <c r="AR14" s="218"/>
+      <c r="AS14" s="228"/>
       <c r="AT14" s="79"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
@@ -49292,10 +49334,10 @@
       <c r="CL14" s="2"/>
     </row>
     <row r="15" spans="1:91" s="74" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="229"/>
-      <c r="B15" s="229"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="233"/>
+      <c r="A15" s="221"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="225"/>
       <c r="E15" s="88" t="s">
         <v>131</v>
       </c>
@@ -49330,15 +49372,15 @@
       <c r="AH15" s="89"/>
       <c r="AI15" s="89"/>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="235"/>
-      <c r="AL15" s="235"/>
-      <c r="AM15" s="237"/>
-      <c r="AN15" s="239"/>
-      <c r="AO15" s="241"/>
-      <c r="AP15" s="239"/>
-      <c r="AQ15" s="239"/>
-      <c r="AR15" s="239"/>
-      <c r="AS15" s="243"/>
+      <c r="AK15" s="227"/>
+      <c r="AL15" s="227"/>
+      <c r="AM15" s="231"/>
+      <c r="AN15" s="219"/>
+      <c r="AO15" s="217"/>
+      <c r="AP15" s="219"/>
+      <c r="AQ15" s="219"/>
+      <c r="AR15" s="219"/>
+      <c r="AS15" s="229"/>
       <c r="AT15" s="79"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
@@ -50409,32 +50451,19 @@
     <protectedRange password="CC78" sqref="B12:B15" name="Range1_4_2"/>
   </protectedRanges>
   <mergeCells count="53">
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM1:AS1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -50449,19 +50478,32 @@
     <mergeCell ref="AM9:AM10"/>
     <mergeCell ref="AN9:AN10"/>
     <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AM1:AS1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AS14:AS15"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:AJ6 F9:AJ10">
     <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
@@ -50516,7 +50558,7 @@
       <selection activeCell="E19" sqref="E19"/>
       <selection pane="topRight" activeCell="E19" sqref="E19"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD17"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -50552,28 +50594,28 @@
       <c r="A1" s="52"/>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
-      <c r="D1" s="244" t="str">
+      <c r="D1" s="251" t="str">
         <f>"BẢNG THANH TOÁN LƯƠNG THÁNG"&amp;" "&amp;TEXT($E$4,"mm")&amp;" / "&amp;TEXT($E$4,"yyyy")</f>
         <v>BẢNG THANH TOÁN LƯƠNG THÁNG 04 / 2014</v>
       </c>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="244"/>
-      <c r="O1" s="244"/>
-      <c r="P1" s="244"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="246" t="s">
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="247"/>
-      <c r="T1" s="248"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="255"/>
       <c r="U1" s="116" t="s">
         <v>147</v>
       </c>
@@ -50676,10 +50718,10 @@
       <c r="Y4" s="126"/>
     </row>
     <row r="5" spans="1:30" s="129" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="249" t="s">
+      <c r="A5" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="256" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="202" t="s">
@@ -50691,18 +50733,18 @@
       <c r="E5" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="252" t="s">
+      <c r="F5" s="258" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="251" t="s">
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="251" t="s">
+      <c r="M5" s="247" t="s">
         <v>150</v>
       </c>
       <c r="N5" s="202" t="s">
@@ -50710,13 +50752,13 @@
       </c>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
-      <c r="Q5" s="251" t="s">
+      <c r="Q5" s="247" t="s">
         <v>152</v>
       </c>
-      <c r="R5" s="251" t="s">
+      <c r="R5" s="247" t="s">
         <v>153</v>
       </c>
-      <c r="S5" s="251" t="s">
+      <c r="S5" s="247" t="s">
         <v>154</v>
       </c>
       <c r="T5" s="208" t="s">
@@ -50734,39 +50776,39 @@
       <c r="AD5" s="92"/>
     </row>
     <row r="6" spans="1:30" s="129" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="250"/>
-      <c r="B6" s="250"/>
+      <c r="A6" s="257"/>
+      <c r="B6" s="257"/>
       <c r="C6" s="202"/>
       <c r="D6" s="202"/>
       <c r="E6" s="207"/>
-      <c r="F6" s="252" t="s">
+      <c r="F6" s="258" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="254"/>
-      <c r="H6" s="252" t="s">
+      <c r="G6" s="260"/>
+      <c r="H6" s="258" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="253"/>
-      <c r="J6" s="258" t="s">
+      <c r="I6" s="259"/>
+      <c r="J6" s="245" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="251" t="s">
+      <c r="K6" s="247" t="s">
         <v>159</v>
       </c>
-      <c r="L6" s="255"/>
-      <c r="M6" s="255"/>
-      <c r="N6" s="260" t="s">
+      <c r="L6" s="248"/>
+      <c r="M6" s="248"/>
+      <c r="N6" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="251" t="s">
+      <c r="O6" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="P6" s="251" t="s">
+      <c r="P6" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="255"/>
-      <c r="R6" s="255"/>
-      <c r="S6" s="255"/>
+      <c r="Q6" s="248"/>
+      <c r="R6" s="248"/>
+      <c r="S6" s="248"/>
       <c r="T6" s="209"/>
       <c r="U6" s="99"/>
       <c r="V6" s="128"/>
@@ -50780,10 +50822,10 @@
       <c r="AD6" s="92"/>
     </row>
     <row r="7" spans="1:30" s="129" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A7" s="250"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
+      <c r="A7" s="257"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
       <c r="E7" s="207"/>
       <c r="F7" s="130" t="s">
         <v>163</v>
@@ -50797,16 +50839,16 @@
       <c r="I7" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="259"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="255"/>
-      <c r="Q7" s="255"/>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="248"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="248"/>
+      <c r="Q7" s="248"/>
+      <c r="R7" s="248"/>
+      <c r="S7" s="248"/>
       <c r="T7" s="209"/>
       <c r="U7" s="99"/>
       <c r="V7" s="128"/>
@@ -51047,12 +51089,12 @@
       <c r="AD11" s="92"/>
     </row>
     <row r="12" spans="1:30" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="257"/>
-      <c r="D12" s="257"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
       <c r="E12" s="163">
         <f>SUM(E9:E10)</f>
         <v>1240000</v>
@@ -51349,12 +51391,12 @@
       <c r="Y16" s="175"/>
     </row>
     <row r="17" spans="1:25" s="166" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="257" t="s">
+      <c r="A17" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="257"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="257"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
       <c r="E17" s="163">
         <f>SUM(E13:E16)</f>
         <v>4500000</v>
@@ -51554,14 +51596,6 @@
   </protectedRanges>
   <autoFilter ref="A7:AD10"/>
   <mergeCells count="24">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="A5:A7"/>
@@ -51578,6 +51612,14 @@
     <mergeCell ref="T5:T7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.24" top="0.2" bottom="0.32" header="0.2" footer="0.2"/>
